--- a/KM5c_data/IODP_Site_U1313.xlsx
+++ b/KM5c_data/IODP_Site_U1313.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,10 +545,15 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -663,19 +668,19 @@
         </is>
       </c>
       <c r="Z2">
-        <v>17.86345383</v>
+        <v>17.76</v>
       </c>
       <c r="AA2">
-        <v>3.735296169999998</v>
+        <v>3.835014970567492</v>
       </c>
       <c r="AB2">
-        <v>2.992291059999999</v>
+        <v>3.092009860567494</v>
       </c>
       <c r="AC2">
-        <v>4.376546169999997</v>
+        <v>4.476264970567492</v>
       </c>
       <c r="AD2">
-        <v>9.126966169999999</v>
+        <v>9.226684970567494</v>
       </c>
       <c r="AE2">
         <v>4.507840909090909</v>
@@ -701,10 +706,13 @@
         <v>17.09090909090909</v>
       </c>
       <c r="AL2">
-        <v>3.6385</v>
+        <v>18.6015</v>
       </c>
       <c r="AM2">
-        <v>8.388920000000001</v>
+        <v>3.638499999999997</v>
+      </c>
+      <c r="AN2">
+        <v>8.388919999999999</v>
       </c>
     </row>
   </sheetData>
